--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value4022.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value4022.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.742811705204489</v>
+        <v>5.282202243804932</v>
       </c>
       <c r="B1">
-        <v>2.503062064302012</v>
+        <v>5.303390026092529</v>
       </c>
       <c r="C1">
-        <v>2.980876143399212</v>
+        <v>8.454256057739258</v>
       </c>
       <c r="D1">
-        <v>3.290105274102579</v>
+        <v>8.30510139465332</v>
       </c>
       <c r="E1">
-        <v>2.268377419575804</v>
+        <v>3.689008235931396</v>
       </c>
     </row>
   </sheetData>
